--- a/Data Collection/cinepolis - 28-08-2022.xlsx
+++ b/Data Collection/cinepolis - 28-08-2022.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -761,7 +761,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3065,7 +3065,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>El salvador</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
